--- a/Real data input/Requests/Low 2/Requests.xlsx
+++ b/Real data input/Requests/Low 2/Requests.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44259AC0-DE97-4A17-990E-BC8D02340AE4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED5754F8-99CC-4A24-976B-253723A01F32}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1282,16 +1282,16 @@
     <t>QSI</t>
   </si>
   <si>
-    <t>SE_U</t>
-  </si>
-  <si>
     <t>LOB</t>
   </si>
   <si>
-    <t>SSK</t>
-  </si>
-  <si>
     <t>KGL</t>
+  </si>
+  <si>
+    <t>SEU</t>
+  </si>
+  <si>
+    <t>GBE</t>
   </si>
 </sst>
 </file>
@@ -1652,8 +1652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K287"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L267" sqref="L267"/>
+    <sheetView tabSelected="1" topLeftCell="A221" workbookViewId="0">
+      <selection activeCell="F243" sqref="F243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1716,6 +1716,9 @@
       <c r="D2" t="s">
         <v>22</v>
       </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>44</v>
       </c>
@@ -1750,6 +1753,9 @@
       <c r="D3" t="s">
         <v>22</v>
       </c>
+      <c r="E3" t="b">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>44</v>
       </c>
@@ -1784,6 +1790,9 @@
       <c r="D4" t="s">
         <v>22</v>
       </c>
+      <c r="E4" t="b">
+        <v>0</v>
+      </c>
       <c r="F4" t="s">
         <v>44</v>
       </c>
@@ -1818,6 +1827,9 @@
       <c r="D5" t="s">
         <v>22</v>
       </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
       <c r="F5" t="s">
         <v>44</v>
       </c>
@@ -1852,6 +1864,9 @@
       <c r="D6" t="s">
         <v>21</v>
       </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
       <c r="F6" t="s">
         <v>45</v>
       </c>
@@ -1886,6 +1901,9 @@
       <c r="D7" t="s">
         <v>21</v>
       </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
       <c r="F7" t="s">
         <v>45</v>
       </c>
@@ -1920,6 +1938,9 @@
       <c r="D8" t="s">
         <v>21</v>
       </c>
+      <c r="E8" t="b">
+        <v>0</v>
+      </c>
       <c r="F8" t="s">
         <v>45</v>
       </c>
@@ -1954,6 +1975,9 @@
       <c r="D9" t="s">
         <v>11</v>
       </c>
+      <c r="E9" t="b">
+        <v>0</v>
+      </c>
       <c r="F9" t="s">
         <v>45</v>
       </c>
@@ -1988,6 +2012,9 @@
       <c r="D10" t="s">
         <v>22</v>
       </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
       <c r="F10" t="s">
         <v>45</v>
       </c>
@@ -2022,6 +2049,9 @@
       <c r="D11" t="s">
         <v>11</v>
       </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
       <c r="F11" t="s">
         <v>45</v>
       </c>
@@ -2056,6 +2086,9 @@
       <c r="D12" t="s">
         <v>11</v>
       </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
       <c r="F12" t="s">
         <v>45</v>
       </c>
@@ -2090,6 +2123,9 @@
       <c r="D13" t="s">
         <v>21</v>
       </c>
+      <c r="E13" t="b">
+        <v>0</v>
+      </c>
       <c r="F13" t="s">
         <v>44</v>
       </c>
@@ -2124,6 +2160,9 @@
       <c r="D14" t="s">
         <v>22</v>
       </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
       <c r="F14" t="s">
         <v>44</v>
       </c>
@@ -2158,6 +2197,9 @@
       <c r="D15" t="s">
         <v>22</v>
       </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
       <c r="F15" t="s">
         <v>44</v>
       </c>
@@ -2192,6 +2234,9 @@
       <c r="D16" t="s">
         <v>22</v>
       </c>
+      <c r="E16" t="b">
+        <v>0</v>
+      </c>
       <c r="F16" t="s">
         <v>44</v>
       </c>
@@ -2226,6 +2271,9 @@
       <c r="D17" t="s">
         <v>22</v>
       </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
       <c r="F17" t="s">
         <v>44</v>
       </c>
@@ -2260,6 +2308,9 @@
       <c r="D18" t="s">
         <v>22</v>
       </c>
+      <c r="E18" t="b">
+        <v>0</v>
+      </c>
       <c r="F18" t="s">
         <v>44</v>
       </c>
@@ -2294,6 +2345,9 @@
       <c r="D19" t="s">
         <v>22</v>
       </c>
+      <c r="E19" t="b">
+        <v>0</v>
+      </c>
       <c r="F19" t="s">
         <v>44</v>
       </c>
@@ -2328,6 +2382,9 @@
       <c r="D20" t="s">
         <v>21</v>
       </c>
+      <c r="E20" t="b">
+        <v>0</v>
+      </c>
       <c r="F20" t="s">
         <v>44</v>
       </c>
@@ -2362,6 +2419,9 @@
       <c r="D21" t="s">
         <v>22</v>
       </c>
+      <c r="E21" t="b">
+        <v>0</v>
+      </c>
       <c r="F21" t="s">
         <v>44</v>
       </c>
@@ -2396,6 +2456,9 @@
       <c r="D22" t="s">
         <v>22</v>
       </c>
+      <c r="E22" t="b">
+        <v>0</v>
+      </c>
       <c r="F22" t="s">
         <v>44</v>
       </c>
@@ -2430,6 +2493,9 @@
       <c r="D23" t="s">
         <v>21</v>
       </c>
+      <c r="E23" t="b">
+        <v>0</v>
+      </c>
       <c r="F23" t="s">
         <v>45</v>
       </c>
@@ -2464,6 +2530,9 @@
       <c r="D24" t="s">
         <v>21</v>
       </c>
+      <c r="E24" t="b">
+        <v>0</v>
+      </c>
       <c r="F24" t="s">
         <v>45</v>
       </c>
@@ -2498,6 +2567,9 @@
       <c r="D25" t="s">
         <v>21</v>
       </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
       <c r="F25" t="s">
         <v>45</v>
       </c>
@@ -2532,6 +2604,9 @@
       <c r="D26" t="s">
         <v>11</v>
       </c>
+      <c r="E26" t="b">
+        <v>0</v>
+      </c>
       <c r="F26" t="s">
         <v>44</v>
       </c>
@@ -2566,6 +2641,9 @@
       <c r="D27" t="s">
         <v>11</v>
       </c>
+      <c r="E27" t="b">
+        <v>0</v>
+      </c>
       <c r="F27" t="s">
         <v>44</v>
       </c>
@@ -2600,6 +2678,9 @@
       <c r="D28" t="s">
         <v>21</v>
       </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
       <c r="F28" t="s">
         <v>44</v>
       </c>
@@ -2634,6 +2715,9 @@
       <c r="D29" t="s">
         <v>21</v>
       </c>
+      <c r="E29" t="b">
+        <v>0</v>
+      </c>
       <c r="F29" t="s">
         <v>44</v>
       </c>
@@ -2668,6 +2752,9 @@
       <c r="D30" t="s">
         <v>21</v>
       </c>
+      <c r="E30" t="b">
+        <v>0</v>
+      </c>
       <c r="F30" t="s">
         <v>44</v>
       </c>
@@ -2702,6 +2789,9 @@
       <c r="D31" t="s">
         <v>21</v>
       </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
       <c r="F31" t="s">
         <v>44</v>
       </c>
@@ -2736,6 +2826,9 @@
       <c r="D32" t="s">
         <v>23</v>
       </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
       <c r="F32" t="s">
         <v>44</v>
       </c>
@@ -2770,6 +2863,9 @@
       <c r="D33" t="s">
         <v>11</v>
       </c>
+      <c r="E33" t="b">
+        <v>0</v>
+      </c>
       <c r="F33" t="s">
         <v>44</v>
       </c>
@@ -2804,6 +2900,9 @@
       <c r="D34" t="s">
         <v>11</v>
       </c>
+      <c r="E34" t="b">
+        <v>0</v>
+      </c>
       <c r="F34" t="s">
         <v>44</v>
       </c>
@@ -2838,6 +2937,9 @@
       <c r="D35" t="s">
         <v>21</v>
       </c>
+      <c r="E35" t="b">
+        <v>0</v>
+      </c>
       <c r="F35" t="s">
         <v>45</v>
       </c>
@@ -2872,6 +2974,9 @@
       <c r="D36" t="s">
         <v>21</v>
       </c>
+      <c r="E36" t="b">
+        <v>0</v>
+      </c>
       <c r="F36" t="s">
         <v>45</v>
       </c>
@@ -2906,6 +3011,9 @@
       <c r="D37" t="s">
         <v>21</v>
       </c>
+      <c r="E37" t="b">
+        <v>0</v>
+      </c>
       <c r="F37" t="s">
         <v>45</v>
       </c>
@@ -2940,6 +3048,9 @@
       <c r="D38" t="s">
         <v>21</v>
       </c>
+      <c r="E38" t="b">
+        <v>0</v>
+      </c>
       <c r="F38" t="s">
         <v>45</v>
       </c>
@@ -2974,6 +3085,9 @@
       <c r="D39" t="s">
         <v>22</v>
       </c>
+      <c r="E39" t="b">
+        <v>0</v>
+      </c>
       <c r="F39" t="s">
         <v>45</v>
       </c>
@@ -3008,6 +3122,9 @@
       <c r="D40" t="s">
         <v>22</v>
       </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
       <c r="F40" t="s">
         <v>45</v>
       </c>
@@ -3042,6 +3159,9 @@
       <c r="D41" t="s">
         <v>22</v>
       </c>
+      <c r="E41" t="b">
+        <v>0</v>
+      </c>
       <c r="F41" t="s">
         <v>44</v>
       </c>
@@ -3076,6 +3196,9 @@
       <c r="D42" t="s">
         <v>22</v>
       </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
       <c r="F42" t="s">
         <v>44</v>
       </c>
@@ -3110,6 +3233,9 @@
       <c r="D43" t="s">
         <v>22</v>
       </c>
+      <c r="E43" t="b">
+        <v>0</v>
+      </c>
       <c r="F43" t="s">
         <v>44</v>
       </c>
@@ -3144,6 +3270,9 @@
       <c r="D44" t="s">
         <v>22</v>
       </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
       <c r="F44" t="s">
         <v>44</v>
       </c>
@@ -3178,6 +3307,9 @@
       <c r="D45" t="s">
         <v>21</v>
       </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
       <c r="F45" t="s">
         <v>44</v>
       </c>
@@ -3212,6 +3344,9 @@
       <c r="D46" t="s">
         <v>21</v>
       </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
       <c r="F46" t="s">
         <v>44</v>
       </c>
@@ -3246,6 +3381,9 @@
       <c r="D47" t="s">
         <v>21</v>
       </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
       <c r="F47" t="s">
         <v>44</v>
       </c>
@@ -3280,6 +3418,9 @@
       <c r="D48" t="s">
         <v>22</v>
       </c>
+      <c r="E48" t="b">
+        <v>0</v>
+      </c>
       <c r="F48" t="s">
         <v>44</v>
       </c>
@@ -3314,6 +3455,9 @@
       <c r="D49" t="s">
         <v>22</v>
       </c>
+      <c r="E49" t="b">
+        <v>0</v>
+      </c>
       <c r="F49" t="s">
         <v>44</v>
       </c>
@@ -3348,6 +3492,9 @@
       <c r="D50" t="s">
         <v>11</v>
       </c>
+      <c r="E50" t="b">
+        <v>0</v>
+      </c>
       <c r="F50" t="s">
         <v>45</v>
       </c>
@@ -3382,6 +3529,9 @@
       <c r="D51" t="s">
         <v>21</v>
       </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
       <c r="F51" t="s">
         <v>45</v>
       </c>
@@ -3416,6 +3566,9 @@
       <c r="D52" t="s">
         <v>21</v>
       </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
       <c r="F52" t="s">
         <v>45</v>
       </c>
@@ -3450,6 +3603,9 @@
       <c r="D53" t="s">
         <v>21</v>
       </c>
+      <c r="E53" t="b">
+        <v>0</v>
+      </c>
       <c r="F53" t="s">
         <v>45</v>
       </c>
@@ -3484,6 +3640,9 @@
       <c r="D54" t="s">
         <v>21</v>
       </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
       <c r="F54" t="s">
         <v>45</v>
       </c>
@@ -3518,6 +3677,9 @@
       <c r="D55" t="s">
         <v>21</v>
       </c>
+      <c r="E55" t="b">
+        <v>0</v>
+      </c>
       <c r="F55" t="s">
         <v>45</v>
       </c>
@@ -3552,6 +3714,9 @@
       <c r="D56" t="s">
         <v>21</v>
       </c>
+      <c r="E56" t="b">
+        <v>0</v>
+      </c>
       <c r="F56" t="s">
         <v>45</v>
       </c>
@@ -3586,6 +3751,9 @@
       <c r="D57" t="s">
         <v>21</v>
       </c>
+      <c r="E57" t="b">
+        <v>0</v>
+      </c>
       <c r="F57" t="s">
         <v>45</v>
       </c>
@@ -3620,6 +3788,9 @@
       <c r="D58" t="s">
         <v>21</v>
       </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
       <c r="F58" t="s">
         <v>45</v>
       </c>
@@ -3654,6 +3825,9 @@
       <c r="D59" t="s">
         <v>22</v>
       </c>
+      <c r="E59" t="b">
+        <v>0</v>
+      </c>
       <c r="F59" t="s">
         <v>45</v>
       </c>
@@ -3688,6 +3862,9 @@
       <c r="D60" t="s">
         <v>21</v>
       </c>
+      <c r="E60" t="b">
+        <v>0</v>
+      </c>
       <c r="F60" t="s">
         <v>45</v>
       </c>
@@ -3722,6 +3899,9 @@
       <c r="D61" t="s">
         <v>21</v>
       </c>
+      <c r="E61" t="b">
+        <v>0</v>
+      </c>
       <c r="F61" t="s">
         <v>45</v>
       </c>
@@ -3756,6 +3936,9 @@
       <c r="D62" t="s">
         <v>11</v>
       </c>
+      <c r="E62" t="b">
+        <v>0</v>
+      </c>
       <c r="F62" t="s">
         <v>44</v>
       </c>
@@ -3790,6 +3973,9 @@
       <c r="D63" t="s">
         <v>11</v>
       </c>
+      <c r="E63" t="b">
+        <v>0</v>
+      </c>
       <c r="F63" t="s">
         <v>44</v>
       </c>
@@ -3824,6 +4010,9 @@
       <c r="D64" t="s">
         <v>11</v>
       </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
       <c r="F64" t="s">
         <v>44</v>
       </c>
@@ -3858,6 +4047,9 @@
       <c r="D65" t="s">
         <v>11</v>
       </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
       <c r="F65" t="s">
         <v>44</v>
       </c>
@@ -3892,6 +4084,9 @@
       <c r="D66" t="s">
         <v>21</v>
       </c>
+      <c r="E66" t="b">
+        <v>0</v>
+      </c>
       <c r="F66" t="s">
         <v>44</v>
       </c>
@@ -3926,6 +4121,9 @@
       <c r="D67" t="s">
         <v>21</v>
       </c>
+      <c r="E67" t="b">
+        <v>0</v>
+      </c>
       <c r="F67" t="s">
         <v>44</v>
       </c>
@@ -3960,6 +4158,9 @@
       <c r="D68" t="s">
         <v>21</v>
       </c>
+      <c r="E68" t="b">
+        <v>0</v>
+      </c>
       <c r="F68" t="s">
         <v>44</v>
       </c>
@@ -3994,6 +4195,9 @@
       <c r="D69" t="s">
         <v>21</v>
       </c>
+      <c r="E69" t="b">
+        <v>0</v>
+      </c>
       <c r="F69" t="s">
         <v>44</v>
       </c>
@@ -4028,6 +4232,9 @@
       <c r="D70" t="s">
         <v>21</v>
       </c>
+      <c r="E70" t="b">
+        <v>0</v>
+      </c>
       <c r="F70" t="s">
         <v>44</v>
       </c>
@@ -4062,6 +4269,9 @@
       <c r="D71" t="s">
         <v>21</v>
       </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
       <c r="F71" t="s">
         <v>44</v>
       </c>
@@ -4096,6 +4306,9 @@
       <c r="D72" t="s">
         <v>22</v>
       </c>
+      <c r="E72" t="b">
+        <v>0</v>
+      </c>
       <c r="F72" t="s">
         <v>44</v>
       </c>
@@ -4130,6 +4343,9 @@
       <c r="D73" t="s">
         <v>21</v>
       </c>
+      <c r="E73" t="b">
+        <v>0</v>
+      </c>
       <c r="F73" t="s">
         <v>45</v>
       </c>
@@ -4164,6 +4380,9 @@
       <c r="D74" t="s">
         <v>21</v>
       </c>
+      <c r="E74" t="b">
+        <v>0</v>
+      </c>
       <c r="F74" t="s">
         <v>45</v>
       </c>
@@ -4198,6 +4417,9 @@
       <c r="D75" t="s">
         <v>21</v>
       </c>
+      <c r="E75" t="b">
+        <v>0</v>
+      </c>
       <c r="F75" t="s">
         <v>45</v>
       </c>
@@ -4232,6 +4454,9 @@
       <c r="D76" t="s">
         <v>21</v>
       </c>
+      <c r="E76" t="b">
+        <v>0</v>
+      </c>
       <c r="F76" t="s">
         <v>45</v>
       </c>
@@ -4266,6 +4491,9 @@
       <c r="D77" t="s">
         <v>21</v>
       </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
       <c r="F77" t="s">
         <v>44</v>
       </c>
@@ -4300,6 +4528,9 @@
       <c r="D78" t="s">
         <v>21</v>
       </c>
+      <c r="E78" t="b">
+        <v>0</v>
+      </c>
       <c r="F78" t="s">
         <v>44</v>
       </c>
@@ -4334,6 +4565,9 @@
       <c r="D79" t="s">
         <v>21</v>
       </c>
+      <c r="E79" t="b">
+        <v>0</v>
+      </c>
       <c r="F79" t="s">
         <v>44</v>
       </c>
@@ -4368,6 +4602,9 @@
       <c r="D80" t="s">
         <v>21</v>
       </c>
+      <c r="E80" t="b">
+        <v>0</v>
+      </c>
       <c r="F80" t="s">
         <v>44</v>
       </c>
@@ -4402,6 +4639,9 @@
       <c r="D81" t="s">
         <v>21</v>
       </c>
+      <c r="E81" t="b">
+        <v>0</v>
+      </c>
       <c r="F81" t="s">
         <v>44</v>
       </c>
@@ -4436,6 +4676,9 @@
       <c r="D82" t="s">
         <v>21</v>
       </c>
+      <c r="E82" t="b">
+        <v>0</v>
+      </c>
       <c r="F82" t="s">
         <v>44</v>
       </c>
@@ -4470,6 +4713,9 @@
       <c r="D83" t="s">
         <v>21</v>
       </c>
+      <c r="E83" t="b">
+        <v>0</v>
+      </c>
       <c r="F83" t="s">
         <v>44</v>
       </c>
@@ -4504,6 +4750,9 @@
       <c r="D84" t="s">
         <v>21</v>
       </c>
+      <c r="E84" t="b">
+        <v>0</v>
+      </c>
       <c r="F84" t="s">
         <v>44</v>
       </c>
@@ -4538,6 +4787,9 @@
       <c r="D85" t="s">
         <v>21</v>
       </c>
+      <c r="E85" t="b">
+        <v>0</v>
+      </c>
       <c r="F85" t="s">
         <v>44</v>
       </c>
@@ -4572,6 +4824,9 @@
       <c r="D86" t="s">
         <v>21</v>
       </c>
+      <c r="E86" t="b">
+        <v>0</v>
+      </c>
       <c r="F86" t="s">
         <v>44</v>
       </c>
@@ -4606,6 +4861,9 @@
       <c r="D87" t="s">
         <v>21</v>
       </c>
+      <c r="E87" t="b">
+        <v>0</v>
+      </c>
       <c r="F87" t="s">
         <v>44</v>
       </c>
@@ -4640,6 +4898,9 @@
       <c r="D88" t="s">
         <v>11</v>
       </c>
+      <c r="E88" t="b">
+        <v>0</v>
+      </c>
       <c r="F88" t="s">
         <v>44</v>
       </c>
@@ -4674,6 +4935,9 @@
       <c r="D89" t="s">
         <v>21</v>
       </c>
+      <c r="E89" t="b">
+        <v>0</v>
+      </c>
       <c r="F89" t="s">
         <v>47</v>
       </c>
@@ -4708,6 +4972,9 @@
       <c r="D90" t="s">
         <v>21</v>
       </c>
+      <c r="E90" t="b">
+        <v>0</v>
+      </c>
       <c r="F90" t="s">
         <v>47</v>
       </c>
@@ -4742,6 +5009,9 @@
       <c r="D91" t="s">
         <v>11</v>
       </c>
+      <c r="E91" t="b">
+        <v>0</v>
+      </c>
       <c r="F91" t="s">
         <v>47</v>
       </c>
@@ -4776,6 +5046,9 @@
       <c r="D92" t="s">
         <v>11</v>
       </c>
+      <c r="E92" t="b">
+        <v>0</v>
+      </c>
       <c r="F92" t="s">
         <v>47</v>
       </c>
@@ -4810,6 +5083,9 @@
       <c r="D93" t="s">
         <v>21</v>
       </c>
+      <c r="E93" t="b">
+        <v>0</v>
+      </c>
       <c r="F93" t="s">
         <v>45</v>
       </c>
@@ -4844,6 +5120,9 @@
       <c r="D94" t="s">
         <v>21</v>
       </c>
+      <c r="E94" t="b">
+        <v>0</v>
+      </c>
       <c r="F94" t="s">
         <v>45</v>
       </c>
@@ -4878,6 +5157,9 @@
       <c r="D95" t="s">
         <v>21</v>
       </c>
+      <c r="E95" t="b">
+        <v>0</v>
+      </c>
       <c r="F95" t="s">
         <v>45</v>
       </c>
@@ -4912,6 +5194,9 @@
       <c r="D96" t="s">
         <v>21</v>
       </c>
+      <c r="E96" t="b">
+        <v>0</v>
+      </c>
       <c r="F96" t="s">
         <v>45</v>
       </c>
@@ -4946,6 +5231,9 @@
       <c r="D97" t="s">
         <v>21</v>
       </c>
+      <c r="E97" t="b">
+        <v>0</v>
+      </c>
       <c r="F97" t="s">
         <v>45</v>
       </c>
@@ -4980,6 +5268,9 @@
       <c r="D98" t="s">
         <v>21</v>
       </c>
+      <c r="E98" t="b">
+        <v>1</v>
+      </c>
       <c r="F98" t="s">
         <v>45</v>
       </c>
@@ -5014,6 +5305,9 @@
       <c r="D99" t="s">
         <v>21</v>
       </c>
+      <c r="E99" t="b">
+        <v>1</v>
+      </c>
       <c r="F99" t="s">
         <v>45</v>
       </c>
@@ -5048,6 +5342,9 @@
       <c r="D100" t="s">
         <v>21</v>
       </c>
+      <c r="E100" t="b">
+        <v>0</v>
+      </c>
       <c r="F100" t="s">
         <v>44</v>
       </c>
@@ -5082,6 +5379,9 @@
       <c r="D101" t="s">
         <v>21</v>
       </c>
+      <c r="E101" t="b">
+        <v>1</v>
+      </c>
       <c r="F101" t="s">
         <v>44</v>
       </c>
@@ -5116,6 +5416,9 @@
       <c r="D102" t="s">
         <v>21</v>
       </c>
+      <c r="E102" t="b">
+        <v>0</v>
+      </c>
       <c r="F102" t="s">
         <v>44</v>
       </c>
@@ -5150,6 +5453,9 @@
       <c r="D103" t="s">
         <v>21</v>
       </c>
+      <c r="E103" t="b">
+        <v>0</v>
+      </c>
       <c r="F103" t="s">
         <v>44</v>
       </c>
@@ -5184,6 +5490,9 @@
       <c r="D104" t="s">
         <v>21</v>
       </c>
+      <c r="E104" t="b">
+        <v>0</v>
+      </c>
       <c r="F104" t="s">
         <v>44</v>
       </c>
@@ -5218,6 +5527,9 @@
       <c r="D105" t="s">
         <v>21</v>
       </c>
+      <c r="E105" t="b">
+        <v>0</v>
+      </c>
       <c r="F105" t="s">
         <v>44</v>
       </c>
@@ -5252,6 +5564,9 @@
       <c r="D106" t="s">
         <v>21</v>
       </c>
+      <c r="E106" t="b">
+        <v>1</v>
+      </c>
       <c r="F106" t="s">
         <v>44</v>
       </c>
@@ -5286,6 +5601,9 @@
       <c r="D107" t="s">
         <v>21</v>
       </c>
+      <c r="E107" t="b">
+        <v>0</v>
+      </c>
       <c r="F107" t="s">
         <v>44</v>
       </c>
@@ -5320,6 +5638,9 @@
       <c r="D108" t="s">
         <v>21</v>
       </c>
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
       <c r="F108" t="s">
         <v>44</v>
       </c>
@@ -5354,6 +5675,9 @@
       <c r="D109" t="s">
         <v>21</v>
       </c>
+      <c r="E109" t="b">
+        <v>0</v>
+      </c>
       <c r="F109" t="s">
         <v>44</v>
       </c>
@@ -5388,6 +5712,9 @@
       <c r="D110" t="s">
         <v>21</v>
       </c>
+      <c r="E110" t="b">
+        <v>0</v>
+      </c>
       <c r="F110" t="s">
         <v>44</v>
       </c>
@@ -5422,6 +5749,9 @@
       <c r="D111" t="s">
         <v>11</v>
       </c>
+      <c r="E111" t="b">
+        <v>0</v>
+      </c>
       <c r="F111" t="s">
         <v>44</v>
       </c>
@@ -5456,6 +5786,9 @@
       <c r="D112" t="s">
         <v>11</v>
       </c>
+      <c r="E112" t="b">
+        <v>0</v>
+      </c>
       <c r="F112" t="s">
         <v>44</v>
       </c>
@@ -5490,6 +5823,9 @@
       <c r="D113" t="s">
         <v>11</v>
       </c>
+      <c r="E113" t="b">
+        <v>0</v>
+      </c>
       <c r="F113" t="s">
         <v>45</v>
       </c>
@@ -5524,6 +5860,9 @@
       <c r="D114" t="s">
         <v>417</v>
       </c>
+      <c r="E114" t="b">
+        <v>0</v>
+      </c>
       <c r="F114" t="s">
         <v>45</v>
       </c>
@@ -5558,6 +5897,9 @@
       <c r="D115" t="s">
         <v>11</v>
       </c>
+      <c r="E115" t="b">
+        <v>0</v>
+      </c>
       <c r="F115" t="s">
         <v>15</v>
       </c>
@@ -5592,6 +5934,9 @@
       <c r="D116" t="s">
         <v>11</v>
       </c>
+      <c r="E116" t="b">
+        <v>0</v>
+      </c>
       <c r="F116" t="s">
         <v>15</v>
       </c>
@@ -5626,6 +5971,9 @@
       <c r="D117" t="s">
         <v>21</v>
       </c>
+      <c r="E117" t="b">
+        <v>0</v>
+      </c>
       <c r="F117" t="s">
         <v>15</v>
       </c>
@@ -5660,6 +6008,9 @@
       <c r="D118" t="s">
         <v>21</v>
       </c>
+      <c r="E118" t="b">
+        <v>0</v>
+      </c>
       <c r="F118" t="s">
         <v>15</v>
       </c>
@@ -5694,6 +6045,9 @@
       <c r="D119" t="s">
         <v>21</v>
       </c>
+      <c r="E119" t="b">
+        <v>0</v>
+      </c>
       <c r="F119" t="s">
         <v>45</v>
       </c>
@@ -5728,6 +6082,9 @@
       <c r="D120" t="s">
         <v>21</v>
       </c>
+      <c r="E120" t="b">
+        <v>0</v>
+      </c>
       <c r="F120" t="s">
         <v>45</v>
       </c>
@@ -5762,6 +6119,9 @@
       <c r="D121" t="s">
         <v>11</v>
       </c>
+      <c r="E121" t="b">
+        <v>0</v>
+      </c>
       <c r="F121" t="s">
         <v>15</v>
       </c>
@@ -5796,6 +6156,9 @@
       <c r="D122" t="s">
         <v>11</v>
       </c>
+      <c r="E122" t="b">
+        <v>0</v>
+      </c>
       <c r="F122" t="s">
         <v>15</v>
       </c>
@@ -5830,6 +6193,9 @@
       <c r="D123" t="s">
         <v>11</v>
       </c>
+      <c r="E123" t="b">
+        <v>0</v>
+      </c>
       <c r="F123" t="s">
         <v>15</v>
       </c>
@@ -5864,6 +6230,9 @@
       <c r="D124" t="s">
         <v>11</v>
       </c>
+      <c r="E124" t="b">
+        <v>0</v>
+      </c>
       <c r="F124" t="s">
         <v>15</v>
       </c>
@@ -5898,6 +6267,9 @@
       <c r="D125" t="s">
         <v>11</v>
       </c>
+      <c r="E125" t="b">
+        <v>0</v>
+      </c>
       <c r="F125" t="s">
         <v>15</v>
       </c>
@@ -5932,6 +6304,9 @@
       <c r="D126" t="s">
         <v>11</v>
       </c>
+      <c r="E126" t="b">
+        <v>0</v>
+      </c>
       <c r="F126" t="s">
         <v>15</v>
       </c>
@@ -5966,6 +6341,9 @@
       <c r="D127" t="s">
         <v>21</v>
       </c>
+      <c r="E127" t="b">
+        <v>0</v>
+      </c>
       <c r="F127" t="s">
         <v>45</v>
       </c>
@@ -6000,6 +6378,9 @@
       <c r="D128" t="s">
         <v>21</v>
       </c>
+      <c r="E128" t="b">
+        <v>0</v>
+      </c>
       <c r="F128" t="s">
         <v>15</v>
       </c>
@@ -6034,6 +6415,9 @@
       <c r="D129" t="s">
         <v>22</v>
       </c>
+      <c r="E129" t="b">
+        <v>0</v>
+      </c>
       <c r="F129" t="s">
         <v>45</v>
       </c>
@@ -6068,6 +6452,9 @@
       <c r="D130" t="s">
         <v>22</v>
       </c>
+      <c r="E130" t="b">
+        <v>0</v>
+      </c>
       <c r="F130" t="s">
         <v>45</v>
       </c>
@@ -6102,6 +6489,9 @@
       <c r="D131" t="s">
         <v>21</v>
       </c>
+      <c r="E131" t="b">
+        <v>0</v>
+      </c>
       <c r="F131" t="s">
         <v>45</v>
       </c>
@@ -6136,6 +6526,9 @@
       <c r="D132" t="s">
         <v>21</v>
       </c>
+      <c r="E132" t="b">
+        <v>0</v>
+      </c>
       <c r="F132" t="s">
         <v>45</v>
       </c>
@@ -6170,6 +6563,9 @@
       <c r="D133" t="s">
         <v>21</v>
       </c>
+      <c r="E133" t="b">
+        <v>0</v>
+      </c>
       <c r="F133" t="s">
         <v>45</v>
       </c>
@@ -6204,6 +6600,9 @@
       <c r="D134" t="s">
         <v>21</v>
       </c>
+      <c r="E134" t="b">
+        <v>0</v>
+      </c>
       <c r="F134" t="s">
         <v>44</v>
       </c>
@@ -6238,6 +6637,9 @@
       <c r="D135" t="s">
         <v>21</v>
       </c>
+      <c r="E135" t="b">
+        <v>0</v>
+      </c>
       <c r="F135" t="s">
         <v>44</v>
       </c>
@@ -6272,6 +6674,9 @@
       <c r="D136" t="s">
         <v>21</v>
       </c>
+      <c r="E136" t="b">
+        <v>0</v>
+      </c>
       <c r="F136" t="s">
         <v>44</v>
       </c>
@@ -6306,6 +6711,9 @@
       <c r="D137" t="s">
         <v>21</v>
       </c>
+      <c r="E137" t="b">
+        <v>0</v>
+      </c>
       <c r="F137" t="s">
         <v>44</v>
       </c>
@@ -6340,6 +6748,9 @@
       <c r="D138" t="s">
         <v>21</v>
       </c>
+      <c r="E138" t="b">
+        <v>0</v>
+      </c>
       <c r="F138" t="s">
         <v>44</v>
       </c>
@@ -6374,6 +6785,9 @@
       <c r="D139" t="s">
         <v>21</v>
       </c>
+      <c r="E139" t="b">
+        <v>0</v>
+      </c>
       <c r="F139" t="s">
         <v>44</v>
       </c>
@@ -6408,6 +6822,9 @@
       <c r="D140" t="s">
         <v>21</v>
       </c>
+      <c r="E140" t="b">
+        <v>0</v>
+      </c>
       <c r="F140" t="s">
         <v>44</v>
       </c>
@@ -6442,6 +6859,9 @@
       <c r="D141" t="s">
         <v>22</v>
       </c>
+      <c r="E141" t="b">
+        <v>0</v>
+      </c>
       <c r="F141" t="s">
         <v>44</v>
       </c>
@@ -6476,6 +6896,9 @@
       <c r="D142" t="s">
         <v>22</v>
       </c>
+      <c r="E142" t="b">
+        <v>0</v>
+      </c>
       <c r="F142" t="s">
         <v>44</v>
       </c>
@@ -6510,6 +6933,9 @@
       <c r="D143" t="s">
         <v>11</v>
       </c>
+      <c r="E143" t="b">
+        <v>1</v>
+      </c>
       <c r="F143" t="s">
         <v>44</v>
       </c>
@@ -6544,6 +6970,9 @@
       <c r="D144" t="s">
         <v>11</v>
       </c>
+      <c r="E144" t="b">
+        <v>1</v>
+      </c>
       <c r="F144" t="s">
         <v>44</v>
       </c>
@@ -6578,6 +7007,9 @@
       <c r="D145" t="s">
         <v>11</v>
       </c>
+      <c r="E145" t="b">
+        <v>0</v>
+      </c>
       <c r="F145" t="s">
         <v>44</v>
       </c>
@@ -6612,6 +7044,9 @@
       <c r="D146" t="s">
         <v>11</v>
       </c>
+      <c r="E146" t="b">
+        <v>0</v>
+      </c>
       <c r="F146" t="s">
         <v>418</v>
       </c>
@@ -6646,6 +7081,9 @@
       <c r="D147" t="s">
         <v>11</v>
       </c>
+      <c r="E147" t="b">
+        <v>0</v>
+      </c>
       <c r="F147" t="s">
         <v>418</v>
       </c>
@@ -6680,6 +7118,9 @@
       <c r="D148" t="s">
         <v>11</v>
       </c>
+      <c r="E148" t="b">
+        <v>0</v>
+      </c>
       <c r="F148" t="s">
         <v>418</v>
       </c>
@@ -6714,6 +7155,9 @@
       <c r="D149" t="s">
         <v>21</v>
       </c>
+      <c r="E149" t="b">
+        <v>0</v>
+      </c>
       <c r="F149" t="s">
         <v>15</v>
       </c>
@@ -6748,6 +7192,9 @@
       <c r="D150" t="s">
         <v>21</v>
       </c>
+      <c r="E150" t="b">
+        <v>0</v>
+      </c>
       <c r="F150" t="s">
         <v>15</v>
       </c>
@@ -6782,6 +7229,9 @@
       <c r="D151" t="s">
         <v>21</v>
       </c>
+      <c r="E151" t="b">
+        <v>0</v>
+      </c>
       <c r="F151" t="s">
         <v>15</v>
       </c>
@@ -6816,6 +7266,9 @@
       <c r="D152" t="s">
         <v>21</v>
       </c>
+      <c r="E152" t="b">
+        <v>0</v>
+      </c>
       <c r="F152" t="s">
         <v>48</v>
       </c>
@@ -6850,6 +7303,9 @@
       <c r="D153" t="s">
         <v>43</v>
       </c>
+      <c r="E153" t="b">
+        <v>0</v>
+      </c>
       <c r="F153" t="s">
         <v>45</v>
       </c>
@@ -6884,6 +7340,9 @@
       <c r="D154" t="s">
         <v>21</v>
       </c>
+      <c r="E154" t="b">
+        <v>0</v>
+      </c>
       <c r="F154" t="s">
         <v>48</v>
       </c>
@@ -6918,6 +7377,9 @@
       <c r="D155" t="s">
         <v>21</v>
       </c>
+      <c r="E155" t="b">
+        <v>0</v>
+      </c>
       <c r="F155" t="s">
         <v>48</v>
       </c>
@@ -6952,6 +7414,9 @@
       <c r="D156" t="s">
         <v>21</v>
       </c>
+      <c r="E156" t="b">
+        <v>0</v>
+      </c>
       <c r="F156" t="s">
         <v>48</v>
       </c>
@@ -6986,6 +7451,9 @@
       <c r="D157" t="s">
         <v>21</v>
       </c>
+      <c r="E157" t="b">
+        <v>0</v>
+      </c>
       <c r="F157" t="s">
         <v>48</v>
       </c>
@@ -7020,6 +7488,9 @@
       <c r="D158" t="s">
         <v>21</v>
       </c>
+      <c r="E158" t="b">
+        <v>0</v>
+      </c>
       <c r="F158" t="s">
         <v>48</v>
       </c>
@@ -7054,6 +7525,9 @@
       <c r="D159" t="s">
         <v>21</v>
       </c>
+      <c r="E159" t="b">
+        <v>0</v>
+      </c>
       <c r="F159" t="s">
         <v>15</v>
       </c>
@@ -7088,6 +7562,9 @@
       <c r="D160" t="s">
         <v>21</v>
       </c>
+      <c r="E160" t="b">
+        <v>0</v>
+      </c>
       <c r="F160" t="s">
         <v>15</v>
       </c>
@@ -7122,6 +7599,9 @@
       <c r="D161" t="s">
         <v>21</v>
       </c>
+      <c r="E161" t="b">
+        <v>0</v>
+      </c>
       <c r="F161" t="s">
         <v>419</v>
       </c>
@@ -7156,6 +7636,9 @@
       <c r="D162" t="s">
         <v>21</v>
       </c>
+      <c r="E162" t="b">
+        <v>0</v>
+      </c>
       <c r="F162" t="s">
         <v>15</v>
       </c>
@@ -7190,6 +7673,9 @@
       <c r="D163" t="s">
         <v>21</v>
       </c>
+      <c r="E163" t="b">
+        <v>0</v>
+      </c>
       <c r="F163" t="s">
         <v>45</v>
       </c>
@@ -7224,6 +7710,9 @@
       <c r="D164" t="s">
         <v>417</v>
       </c>
+      <c r="E164" t="b">
+        <v>0</v>
+      </c>
       <c r="F164" t="s">
         <v>418</v>
       </c>
@@ -7258,6 +7747,9 @@
       <c r="D165" t="s">
         <v>417</v>
       </c>
+      <c r="E165" t="b">
+        <v>0</v>
+      </c>
       <c r="F165" t="s">
         <v>418</v>
       </c>
@@ -7292,6 +7784,9 @@
       <c r="D166" t="s">
         <v>21</v>
       </c>
+      <c r="E166" t="b">
+        <v>0</v>
+      </c>
       <c r="F166" t="s">
         <v>48</v>
       </c>
@@ -7326,6 +7821,9 @@
       <c r="D167" t="s">
         <v>21</v>
       </c>
+      <c r="E167" t="b">
+        <v>0</v>
+      </c>
       <c r="F167" t="s">
         <v>44</v>
       </c>
@@ -7360,6 +7858,9 @@
       <c r="D168" t="s">
         <v>11</v>
       </c>
+      <c r="E168" t="b">
+        <v>0</v>
+      </c>
       <c r="F168" t="s">
         <v>44</v>
       </c>
@@ -7394,6 +7895,9 @@
       <c r="D169" t="s">
         <v>11</v>
       </c>
+      <c r="E169" t="b">
+        <v>0</v>
+      </c>
       <c r="F169" t="s">
         <v>44</v>
       </c>
@@ -7428,6 +7932,9 @@
       <c r="D170" t="s">
         <v>21</v>
       </c>
+      <c r="E170" t="b">
+        <v>0</v>
+      </c>
       <c r="F170" t="s">
         <v>44</v>
       </c>
@@ -7462,6 +7969,9 @@
       <c r="D171" t="s">
         <v>21</v>
       </c>
+      <c r="E171" t="b">
+        <v>0</v>
+      </c>
       <c r="F171" t="s">
         <v>44</v>
       </c>
@@ -7496,6 +8006,9 @@
       <c r="D172" t="s">
         <v>21</v>
       </c>
+      <c r="E172" t="b">
+        <v>0</v>
+      </c>
       <c r="F172" t="s">
         <v>44</v>
       </c>
@@ -7530,6 +8043,9 @@
       <c r="D173" t="s">
         <v>21</v>
       </c>
+      <c r="E173" t="b">
+        <v>0</v>
+      </c>
       <c r="F173" t="s">
         <v>44</v>
       </c>
@@ -7564,6 +8080,9 @@
       <c r="D174" t="s">
         <v>21</v>
       </c>
+      <c r="E174" t="b">
+        <v>0</v>
+      </c>
       <c r="F174" t="s">
         <v>44</v>
       </c>
@@ -7598,6 +8117,9 @@
       <c r="D175" t="s">
         <v>21</v>
       </c>
+      <c r="E175" t="b">
+        <v>0</v>
+      </c>
       <c r="F175" t="s">
         <v>45</v>
       </c>
@@ -7632,6 +8154,9 @@
       <c r="D176" t="s">
         <v>21</v>
       </c>
+      <c r="E176" t="b">
+        <v>0</v>
+      </c>
       <c r="F176" t="s">
         <v>45</v>
       </c>
@@ -7666,6 +8191,9 @@
       <c r="D177" t="s">
         <v>21</v>
       </c>
+      <c r="E177" t="b">
+        <v>0</v>
+      </c>
       <c r="F177" t="s">
         <v>45</v>
       </c>
@@ -7700,6 +8228,9 @@
       <c r="D178" t="s">
         <v>21</v>
       </c>
+      <c r="E178" t="b">
+        <v>0</v>
+      </c>
       <c r="F178" t="s">
         <v>45</v>
       </c>
@@ -7734,6 +8265,9 @@
       <c r="D179" t="s">
         <v>21</v>
       </c>
+      <c r="E179" t="b">
+        <v>0</v>
+      </c>
       <c r="F179" t="s">
         <v>44</v>
       </c>
@@ -7768,6 +8302,9 @@
       <c r="D180" t="s">
         <v>21</v>
       </c>
+      <c r="E180" t="b">
+        <v>0</v>
+      </c>
       <c r="F180" t="s">
         <v>44</v>
       </c>
@@ -7802,6 +8339,9 @@
       <c r="D181" t="s">
         <v>21</v>
       </c>
+      <c r="E181" t="b">
+        <v>0</v>
+      </c>
       <c r="F181" t="s">
         <v>44</v>
       </c>
@@ -7836,6 +8376,9 @@
       <c r="D182" t="s">
         <v>21</v>
       </c>
+      <c r="E182" t="b">
+        <v>0</v>
+      </c>
       <c r="F182" t="s">
         <v>44</v>
       </c>
@@ -7870,6 +8413,9 @@
       <c r="D183" t="s">
         <v>21</v>
       </c>
+      <c r="E183" t="b">
+        <v>0</v>
+      </c>
       <c r="F183" t="s">
         <v>44</v>
       </c>
@@ -7904,6 +8450,9 @@
       <c r="D184" t="s">
         <v>21</v>
       </c>
+      <c r="E184" t="b">
+        <v>0</v>
+      </c>
       <c r="F184" t="s">
         <v>44</v>
       </c>
@@ -7938,6 +8487,9 @@
       <c r="D185" t="s">
         <v>21</v>
       </c>
+      <c r="E185" t="b">
+        <v>0</v>
+      </c>
       <c r="F185" t="s">
         <v>44</v>
       </c>
@@ -7972,6 +8524,9 @@
       <c r="D186" t="s">
         <v>21</v>
       </c>
+      <c r="E186" t="b">
+        <v>0</v>
+      </c>
       <c r="F186" t="s">
         <v>45</v>
       </c>
@@ -8006,6 +8561,9 @@
       <c r="D187" t="s">
         <v>21</v>
       </c>
+      <c r="E187" t="b">
+        <v>0</v>
+      </c>
       <c r="F187" t="s">
         <v>45</v>
       </c>
@@ -8040,6 +8598,9 @@
       <c r="D188" t="s">
         <v>21</v>
       </c>
+      <c r="E188" t="b">
+        <v>0</v>
+      </c>
       <c r="F188" t="s">
         <v>45</v>
       </c>
@@ -8074,6 +8635,9 @@
       <c r="D189" t="s">
         <v>21</v>
       </c>
+      <c r="E189" t="b">
+        <v>0</v>
+      </c>
       <c r="F189" t="s">
         <v>49</v>
       </c>
@@ -8108,6 +8672,9 @@
       <c r="D190" t="s">
         <v>23</v>
       </c>
+      <c r="E190" t="b">
+        <v>0</v>
+      </c>
       <c r="F190" t="s">
         <v>45</v>
       </c>
@@ -8142,6 +8709,9 @@
       <c r="D191" t="s">
         <v>21</v>
       </c>
+      <c r="E191" t="b">
+        <v>0</v>
+      </c>
       <c r="F191" t="s">
         <v>49</v>
       </c>
@@ -8176,6 +8746,9 @@
       <c r="D192" t="s">
         <v>21</v>
       </c>
+      <c r="E192" t="b">
+        <v>0</v>
+      </c>
       <c r="F192" t="s">
         <v>49</v>
       </c>
@@ -8210,6 +8783,9 @@
       <c r="D193" t="s">
         <v>21</v>
       </c>
+      <c r="E193" t="b">
+        <v>0</v>
+      </c>
       <c r="F193" t="s">
         <v>45</v>
       </c>
@@ -8244,6 +8820,9 @@
       <c r="D194" t="s">
         <v>21</v>
       </c>
+      <c r="E194" t="b">
+        <v>0</v>
+      </c>
       <c r="F194" t="s">
         <v>45</v>
       </c>
@@ -8278,6 +8857,9 @@
       <c r="D195" t="s">
         <v>21</v>
       </c>
+      <c r="E195" t="b">
+        <v>0</v>
+      </c>
       <c r="F195" t="s">
         <v>49</v>
       </c>
@@ -8312,6 +8894,9 @@
       <c r="D196" t="s">
         <v>11</v>
       </c>
+      <c r="E196" t="b">
+        <v>0</v>
+      </c>
       <c r="F196" t="s">
         <v>49</v>
       </c>
@@ -8346,6 +8931,9 @@
       <c r="D197" t="s">
         <v>11</v>
       </c>
+      <c r="E197" t="b">
+        <v>0</v>
+      </c>
       <c r="F197" t="s">
         <v>49</v>
       </c>
@@ -8380,6 +8968,9 @@
       <c r="D198" t="s">
         <v>21</v>
       </c>
+      <c r="E198" t="b">
+        <v>0</v>
+      </c>
       <c r="F198" t="s">
         <v>44</v>
       </c>
@@ -8414,6 +9005,9 @@
       <c r="D199" t="s">
         <v>21</v>
       </c>
+      <c r="E199" t="b">
+        <v>0</v>
+      </c>
       <c r="F199" t="s">
         <v>44</v>
       </c>
@@ -8448,6 +9042,9 @@
       <c r="D200" t="s">
         <v>21</v>
       </c>
+      <c r="E200" t="b">
+        <v>0</v>
+      </c>
       <c r="F200" t="s">
         <v>44</v>
       </c>
@@ -8482,6 +9079,9 @@
       <c r="D201" t="s">
         <v>21</v>
       </c>
+      <c r="E201" t="b">
+        <v>0</v>
+      </c>
       <c r="F201" t="s">
         <v>44</v>
       </c>
@@ -8516,6 +9116,9 @@
       <c r="D202" t="s">
         <v>21</v>
       </c>
+      <c r="E202" t="b">
+        <v>0</v>
+      </c>
       <c r="F202" t="s">
         <v>45</v>
       </c>
@@ -8550,6 +9153,9 @@
       <c r="D203" t="s">
         <v>21</v>
       </c>
+      <c r="E203" t="b">
+        <v>0</v>
+      </c>
       <c r="F203" t="s">
         <v>45</v>
       </c>
@@ -8584,6 +9190,9 @@
       <c r="D204" t="s">
         <v>21</v>
       </c>
+      <c r="E204" t="b">
+        <v>0</v>
+      </c>
       <c r="F204" t="s">
         <v>44</v>
       </c>
@@ -8618,6 +9227,9 @@
       <c r="D205" t="s">
         <v>21</v>
       </c>
+      <c r="E205" t="b">
+        <v>0</v>
+      </c>
       <c r="F205" t="s">
         <v>44</v>
       </c>
@@ -8652,6 +9264,9 @@
       <c r="D206" t="s">
         <v>21</v>
       </c>
+      <c r="E206" t="b">
+        <v>0</v>
+      </c>
       <c r="F206" t="s">
         <v>45</v>
       </c>
@@ -8686,6 +9301,9 @@
       <c r="D207" t="s">
         <v>22</v>
       </c>
+      <c r="E207" t="b">
+        <v>0</v>
+      </c>
       <c r="F207" t="s">
         <v>44</v>
       </c>
@@ -8720,6 +9338,9 @@
       <c r="D208" t="s">
         <v>21</v>
       </c>
+      <c r="E208" t="b">
+        <v>0</v>
+      </c>
       <c r="F208" t="s">
         <v>45</v>
       </c>
@@ -8754,6 +9375,9 @@
       <c r="D209" t="s">
         <v>21</v>
       </c>
+      <c r="E209" t="b">
+        <v>0</v>
+      </c>
       <c r="F209" t="s">
         <v>49</v>
       </c>
@@ -8788,6 +9412,9 @@
       <c r="D210" t="s">
         <v>21</v>
       </c>
+      <c r="E210" t="b">
+        <v>0</v>
+      </c>
       <c r="F210" t="s">
         <v>49</v>
       </c>
@@ -8822,6 +9449,9 @@
       <c r="D211" t="s">
         <v>22</v>
       </c>
+      <c r="E211" t="b">
+        <v>0</v>
+      </c>
       <c r="F211" t="s">
         <v>45</v>
       </c>
@@ -8856,6 +9486,9 @@
       <c r="D212" t="s">
         <v>22</v>
       </c>
+      <c r="E212" t="b">
+        <v>0</v>
+      </c>
       <c r="F212" t="s">
         <v>45</v>
       </c>
@@ -8890,6 +9523,9 @@
       <c r="D213" t="s">
         <v>21</v>
       </c>
+      <c r="E213" t="b">
+        <v>0</v>
+      </c>
       <c r="F213" t="s">
         <v>49</v>
       </c>
@@ -8924,6 +9560,9 @@
       <c r="D214" t="s">
         <v>21</v>
       </c>
+      <c r="E214" t="b">
+        <v>0</v>
+      </c>
       <c r="F214" t="s">
         <v>48</v>
       </c>
@@ -8958,6 +9597,9 @@
       <c r="D215" t="s">
         <v>21</v>
       </c>
+      <c r="E215" t="b">
+        <v>0</v>
+      </c>
       <c r="F215" t="s">
         <v>48</v>
       </c>
@@ -8992,6 +9634,9 @@
       <c r="D216" t="s">
         <v>21</v>
       </c>
+      <c r="E216" t="b">
+        <v>0</v>
+      </c>
       <c r="F216" t="s">
         <v>48</v>
       </c>
@@ -9026,6 +9671,9 @@
       <c r="D217" t="s">
         <v>21</v>
       </c>
+      <c r="E217" t="b">
+        <v>0</v>
+      </c>
       <c r="F217" t="s">
         <v>45</v>
       </c>
@@ -9060,6 +9708,9 @@
       <c r="D218" t="s">
         <v>21</v>
       </c>
+      <c r="E218" t="b">
+        <v>0</v>
+      </c>
       <c r="F218" t="s">
         <v>45</v>
       </c>
@@ -9094,6 +9745,9 @@
       <c r="D219" t="s">
         <v>21</v>
       </c>
+      <c r="E219" t="b">
+        <v>0</v>
+      </c>
       <c r="F219" t="s">
         <v>45</v>
       </c>
@@ -9128,6 +9782,9 @@
       <c r="D220" t="s">
         <v>21</v>
       </c>
+      <c r="E220" t="b">
+        <v>0</v>
+      </c>
       <c r="F220" t="s">
         <v>45</v>
       </c>
@@ -9162,6 +9819,9 @@
       <c r="D221" t="s">
         <v>21</v>
       </c>
+      <c r="E221" t="b">
+        <v>0</v>
+      </c>
       <c r="F221" t="s">
         <v>45</v>
       </c>
@@ -9196,6 +9856,9 @@
       <c r="D222" t="s">
         <v>21</v>
       </c>
+      <c r="E222" t="b">
+        <v>0</v>
+      </c>
       <c r="F222" t="s">
         <v>48</v>
       </c>
@@ -9230,6 +9893,9 @@
       <c r="D223" t="s">
         <v>22</v>
       </c>
+      <c r="E223" t="b">
+        <v>0</v>
+      </c>
       <c r="F223" t="s">
         <v>45</v>
       </c>
@@ -9264,6 +9930,9 @@
       <c r="D224" t="s">
         <v>22</v>
       </c>
+      <c r="E224" t="b">
+        <v>0</v>
+      </c>
       <c r="F224" t="s">
         <v>45</v>
       </c>
@@ -9298,6 +9967,9 @@
       <c r="D225" t="s">
         <v>11</v>
       </c>
+      <c r="E225" t="b">
+        <v>0</v>
+      </c>
       <c r="F225" t="s">
         <v>15</v>
       </c>
@@ -9332,6 +10004,9 @@
       <c r="D226" t="s">
         <v>11</v>
       </c>
+      <c r="E226" t="b">
+        <v>0</v>
+      </c>
       <c r="F226" t="s">
         <v>15</v>
       </c>
@@ -9366,6 +10041,9 @@
       <c r="D227" t="s">
         <v>11</v>
       </c>
+      <c r="E227" t="b">
+        <v>0</v>
+      </c>
       <c r="F227" t="s">
         <v>20</v>
       </c>
@@ -9400,6 +10078,9 @@
       <c r="D228" t="s">
         <v>11</v>
       </c>
+      <c r="E228" t="b">
+        <v>0</v>
+      </c>
       <c r="F228" t="s">
         <v>20</v>
       </c>
@@ -9434,6 +10115,9 @@
       <c r="D229" t="s">
         <v>11</v>
       </c>
+      <c r="E229" t="b">
+        <v>0</v>
+      </c>
       <c r="F229" t="s">
         <v>20</v>
       </c>
@@ -9468,6 +10152,9 @@
       <c r="D230" t="s">
         <v>11</v>
       </c>
+      <c r="E230" t="b">
+        <v>0</v>
+      </c>
       <c r="F230" t="s">
         <v>20</v>
       </c>
@@ -9502,6 +10189,9 @@
       <c r="D231" t="s">
         <v>11</v>
       </c>
+      <c r="E231" t="b">
+        <v>0</v>
+      </c>
       <c r="F231" t="s">
         <v>20</v>
       </c>
@@ -9536,8 +10226,11 @@
       <c r="D232" t="s">
         <v>11</v>
       </c>
+      <c r="E232" t="b">
+        <v>0</v>
+      </c>
       <c r="F232" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G232" t="s">
         <v>15</v>
@@ -9570,8 +10263,11 @@
       <c r="D233" t="s">
         <v>11</v>
       </c>
+      <c r="E233" t="b">
+        <v>0</v>
+      </c>
       <c r="F233" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="G233" t="s">
         <v>15</v>
@@ -9604,8 +10300,11 @@
       <c r="D234" t="s">
         <v>11</v>
       </c>
+      <c r="E234" t="b">
+        <v>0</v>
+      </c>
       <c r="F234" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G234" t="s">
         <v>20</v>
@@ -9638,8 +10337,11 @@
       <c r="D235" t="s">
         <v>11</v>
       </c>
+      <c r="E235" t="b">
+        <v>0</v>
+      </c>
       <c r="F235" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G235" t="s">
         <v>20</v>
@@ -9672,8 +10374,11 @@
       <c r="D236" t="s">
         <v>11</v>
       </c>
+      <c r="E236" t="b">
+        <v>0</v>
+      </c>
       <c r="F236" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G236" t="s">
         <v>20</v>
@@ -9706,8 +10411,11 @@
       <c r="D237" t="s">
         <v>11</v>
       </c>
+      <c r="E237" t="b">
+        <v>0</v>
+      </c>
       <c r="F237" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G237" t="s">
         <v>18</v>
@@ -9740,8 +10448,11 @@
       <c r="D238" t="s">
         <v>11</v>
       </c>
+      <c r="E238" t="b">
+        <v>0</v>
+      </c>
       <c r="F238" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G238" t="s">
         <v>18</v>
@@ -9774,8 +10485,11 @@
       <c r="D239" t="s">
         <v>11</v>
       </c>
+      <c r="E239" t="b">
+        <v>1</v>
+      </c>
       <c r="F239" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G239" t="s">
         <v>18</v>
@@ -9808,8 +10522,11 @@
       <c r="D240" t="s">
         <v>11</v>
       </c>
+      <c r="E240" t="b">
+        <v>1</v>
+      </c>
       <c r="F240" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G240" t="s">
         <v>18</v>
@@ -9842,8 +10559,11 @@
       <c r="D241" t="s">
         <v>11</v>
       </c>
+      <c r="E241" t="b">
+        <v>1</v>
+      </c>
       <c r="F241" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G241" t="s">
         <v>18</v>
@@ -9876,8 +10596,11 @@
       <c r="D242" t="s">
         <v>11</v>
       </c>
+      <c r="E242" t="b">
+        <v>1</v>
+      </c>
       <c r="F242" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G242" t="s">
         <v>18</v>
@@ -9910,8 +10633,11 @@
       <c r="D243" t="s">
         <v>11</v>
       </c>
+      <c r="E243" t="b">
+        <v>0</v>
+      </c>
       <c r="F243" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G243" t="s">
         <v>17</v>
@@ -9944,8 +10670,11 @@
       <c r="D244" t="s">
         <v>11</v>
       </c>
+      <c r="E244" t="b">
+        <v>0</v>
+      </c>
       <c r="F244" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G244" t="s">
         <v>17</v>
@@ -9978,8 +10707,11 @@
       <c r="D245" t="s">
         <v>11</v>
       </c>
+      <c r="E245" t="b">
+        <v>0</v>
+      </c>
       <c r="F245" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G245" t="s">
         <v>17</v>
@@ -10012,11 +10744,14 @@
       <c r="D246" t="s">
         <v>11</v>
       </c>
+      <c r="E246" t="b">
+        <v>0</v>
+      </c>
       <c r="F246" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G246" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H246" s="5">
         <v>25569.291666666668</v>
@@ -10046,11 +10781,14 @@
       <c r="D247" t="s">
         <v>11</v>
       </c>
+      <c r="E247" t="b">
+        <v>0</v>
+      </c>
       <c r="F247" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="G247" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H247" s="5">
         <v>25569.291666666668</v>
@@ -10080,11 +10818,14 @@
       <c r="D248" t="s">
         <v>11</v>
       </c>
+      <c r="E248" t="b">
+        <v>1</v>
+      </c>
       <c r="F248" t="s">
         <v>19</v>
       </c>
       <c r="G248" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H248" s="5">
         <v>25569.472222222223</v>
@@ -10114,11 +10855,14 @@
       <c r="D249" t="s">
         <v>11</v>
       </c>
+      <c r="E249" t="b">
+        <v>1</v>
+      </c>
       <c r="F249" t="s">
         <v>19</v>
       </c>
       <c r="G249" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H249" s="5">
         <v>25569.472222222223</v>
@@ -10148,11 +10892,14 @@
       <c r="D250" t="s">
         <v>11</v>
       </c>
+      <c r="E250" t="b">
+        <v>1</v>
+      </c>
       <c r="F250" t="s">
         <v>19</v>
       </c>
       <c r="G250" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H250" s="5">
         <v>25569.472222222223</v>
@@ -10182,11 +10929,14 @@
       <c r="D251" t="s">
         <v>11</v>
       </c>
+      <c r="E251" t="b">
+        <v>0</v>
+      </c>
       <c r="F251" t="s">
         <v>19</v>
       </c>
       <c r="G251" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H251" s="5">
         <v>25569.472222222223</v>
@@ -10216,11 +10966,14 @@
       <c r="D252" t="s">
         <v>11</v>
       </c>
+      <c r="E252" t="b">
+        <v>0</v>
+      </c>
       <c r="F252" t="s">
         <v>16</v>
       </c>
       <c r="G252" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H252" s="5">
         <v>25569.451388888891</v>
@@ -10250,11 +11003,14 @@
       <c r="D253" t="s">
         <v>11</v>
       </c>
+      <c r="E253" t="b">
+        <v>1</v>
+      </c>
       <c r="F253" t="s">
         <v>16</v>
       </c>
       <c r="G253" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H253" s="5">
         <v>25569.451388888891</v>
@@ -10284,11 +11040,14 @@
       <c r="D254" t="s">
         <v>11</v>
       </c>
+      <c r="E254" t="b">
+        <v>1</v>
+      </c>
       <c r="F254" t="s">
         <v>16</v>
       </c>
       <c r="G254" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H254" s="5">
         <v>25569.451388888891</v>
@@ -10318,11 +11077,14 @@
       <c r="D255" t="s">
         <v>11</v>
       </c>
+      <c r="E255" t="b">
+        <v>0</v>
+      </c>
       <c r="F255" t="s">
         <v>20</v>
       </c>
       <c r="G255" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H255" s="5">
         <v>25569.482638888891</v>
@@ -10352,11 +11114,14 @@
       <c r="D256" t="s">
         <v>11</v>
       </c>
+      <c r="E256" t="b">
+        <v>0</v>
+      </c>
       <c r="F256" t="s">
         <v>20</v>
       </c>
       <c r="G256" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H256" s="5">
         <v>25569.482638888891</v>
@@ -10386,11 +11151,14 @@
       <c r="D257" t="s">
         <v>11</v>
       </c>
+      <c r="E257" t="b">
+        <v>0</v>
+      </c>
       <c r="F257" t="s">
         <v>19</v>
       </c>
       <c r="G257" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H257" s="5">
         <v>25569.472222222223</v>
@@ -10420,11 +11188,14 @@
       <c r="D258" t="s">
         <v>11</v>
       </c>
+      <c r="E258" t="b">
+        <v>0</v>
+      </c>
       <c r="F258" t="s">
         <v>16</v>
       </c>
       <c r="G258" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H258" s="5">
         <v>25569.451388888891</v>
@@ -10454,11 +11225,14 @@
       <c r="D259" t="s">
         <v>11</v>
       </c>
+      <c r="E259" t="b">
+        <v>0</v>
+      </c>
       <c r="F259" t="s">
         <v>16</v>
       </c>
       <c r="G259" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H259" s="5">
         <v>25569.451388888891</v>
@@ -10488,11 +11262,14 @@
       <c r="D260" t="s">
         <v>11</v>
       </c>
+      <c r="E260" t="b">
+        <v>0</v>
+      </c>
       <c r="F260" t="s">
         <v>15</v>
       </c>
       <c r="G260" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H260" s="5">
         <v>25569.541666666668</v>
@@ -10522,11 +11299,14 @@
       <c r="D261" t="s">
         <v>11</v>
       </c>
+      <c r="E261" t="b">
+        <v>0</v>
+      </c>
       <c r="F261" t="s">
         <v>15</v>
       </c>
       <c r="G261" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H261" s="5">
         <v>25569.541666666668</v>
@@ -10556,11 +11336,14 @@
       <c r="D262" t="s">
         <v>11</v>
       </c>
+      <c r="E262" t="b">
+        <v>1</v>
+      </c>
       <c r="F262" t="s">
         <v>15</v>
       </c>
       <c r="G262" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H262" s="5">
         <v>25569.541666666668</v>
@@ -10590,11 +11373,14 @@
       <c r="D263" t="s">
         <v>11</v>
       </c>
+      <c r="E263" t="b">
+        <v>0</v>
+      </c>
       <c r="F263" t="s">
         <v>15</v>
       </c>
       <c r="G263" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H263" s="5">
         <v>25569.541666666668</v>
@@ -10624,11 +11410,14 @@
       <c r="D264" t="s">
         <v>11</v>
       </c>
+      <c r="E264" t="b">
+        <v>0</v>
+      </c>
       <c r="F264" t="s">
         <v>15</v>
       </c>
       <c r="G264" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H264" s="5">
         <v>25569.541666666668</v>
@@ -10658,11 +11447,14 @@
       <c r="D265" t="s">
         <v>11</v>
       </c>
+      <c r="E265" t="b">
+        <v>0</v>
+      </c>
       <c r="F265" t="s">
         <v>15</v>
       </c>
       <c r="G265" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H265" s="5">
         <v>25569.541666666668</v>
@@ -10692,11 +11484,14 @@
       <c r="D266" t="s">
         <v>11</v>
       </c>
+      <c r="E266" t="b">
+        <v>0</v>
+      </c>
       <c r="F266" t="s">
         <v>15</v>
       </c>
       <c r="G266" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H266" s="5">
         <v>25569.541666666668</v>
@@ -10726,11 +11521,14 @@
       <c r="D267" t="s">
         <v>417</v>
       </c>
+      <c r="E267" t="b">
+        <v>0</v>
+      </c>
       <c r="F267" t="s">
         <v>18</v>
       </c>
       <c r="G267" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H267" s="5">
         <v>25569.576388888891</v>
@@ -10760,11 +11558,14 @@
       <c r="D268" t="s">
         <v>11</v>
       </c>
+      <c r="E268" t="b">
+        <v>0</v>
+      </c>
       <c r="F268" t="s">
         <v>18</v>
       </c>
       <c r="G268" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H268" s="5">
         <v>25569.576388888891</v>
@@ -10794,11 +11595,14 @@
       <c r="D269" t="s">
         <v>417</v>
       </c>
+      <c r="E269" t="b">
+        <v>0</v>
+      </c>
       <c r="F269" t="s">
         <v>18</v>
       </c>
       <c r="G269" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H269" s="5">
         <v>25569.576388888891</v>
@@ -10828,11 +11632,14 @@
       <c r="D270" t="s">
         <v>11</v>
       </c>
+      <c r="E270" t="b">
+        <v>0</v>
+      </c>
       <c r="F270" t="s">
         <v>18</v>
       </c>
       <c r="G270" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H270" s="5">
         <v>25569.576388888891</v>
@@ -10862,11 +11669,14 @@
       <c r="D271" t="s">
         <v>11</v>
       </c>
+      <c r="E271" t="b">
+        <v>0</v>
+      </c>
       <c r="F271" t="s">
         <v>18</v>
       </c>
       <c r="G271" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H271" s="5">
         <v>25569.576388888891</v>
